--- a/Hoja_calc.xlsx
+++ b/Hoja_calc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -20,10 +20,16 @@
     <t>EDAD</t>
   </si>
   <si>
+    <t>SEXO</t>
+  </si>
+  <si>
     <t>Pedro</t>
   </si>
   <si>
     <t>29</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>Oscar</t>
@@ -36,6 +42,9 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -80,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,29 +102,41 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
